--- a/medicine/Enfance/Jeff_Arnold_(bande_dessinée)/Jeff_Arnold_(bande_dessinée).xlsx
+++ b/medicine/Enfance/Jeff_Arnold_(bande_dessinée)/Jeff_Arnold_(bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jeff Arnold est une bande dessinée britannique qui de 1950 à 1962 fut présente dans les pages de Eagle et dont certains épisodes furent publiés en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">A l’origine Riders of the Range est un feuilleton radio de la BBC diffusé de 1949 à 1953 créé par Charles Chilton. Jeff Arnold n’est au départ que l’un des personnages du ranch 6T6. Mais ayant tous les atouts du héros parfait, il devient rapidement la vedette de la série. Son succès radiophonique fait que la direction d’Eagle demande à son créateur de l’adapter en BD. 
-Soulignons toutefois qu’à la différence de P.C. 49 autre succès radio présent dans les pages de la revue, Riders of the Range n’apparait qu’au numéro 37, celui de Noël 1950. C’est Jack Daniel[1] qui officie au dessin mais Marcus Morris[2] le patron d’Eagle trouvant son style trop « européen »[3] le remplace en septembre 1951 par Angus Scott (1909-2003)[4]. Celui-ci fera l’année scolaire 51-52 et passera la main à Frank Humphris qui dès lors devient le dessinateur attitré de la série. D’autres dessinateurs, tels Jesús Blasco, Giorgio Bellavitis[5] et Roland Davies, interviendront néanmoins ici et là au cours du temps.
+Soulignons toutefois qu’à la différence de P.C. 49 autre succès radio présent dans les pages de la revue, Riders of the Range n’apparait qu’au numéro 37, celui de Noël 1950. C’est Jack Daniel qui officie au dessin mais Marcus Morris le patron d’Eagle trouvant son style trop « européen » le remplace en septembre 1951 par Angus Scott (1909-2003). Celui-ci fera l’année scolaire 51-52 et passera la main à Frank Humphris qui dès lors devient le dessinateur attitré de la série. D’autres dessinateurs, tels Jesús Blasco, Giorgio Bellavitis et Roland Davies, interviendront néanmoins ici et là au cours du temps.
 La série BD survivra à la disparition radio en 1953 pour s’achever en 1962. Frank Humphris reviendra au western dans cette même revue avec Blackbow the Cheyenne.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Héros sans peur, rapide et précis au pistolet, Jeff Arnold est accompagné de Luke, son contrepoids comique et en quelque sorte son opposé, Jeff est grand, Luke petit, Jeff est jeune, Luke vieux, etc. C’est en quelque sorte un Jim MacClure avant la lettre même si sa tenue, gilet, chemise jaune, jean bleu évoque davantage le costume de Lucky Luke.
 La qualité du dessin de Humphris fait que le personnage passe la Manche puisqu’on le retrouve en Allemagne, en Italie où il a une revue à son nom et bien sûr en France notamment dans L’Intrépide et Pilote. Outre ces revues, qui respectent la présentation originelle, on le retrouve également dans Jeff, un petit format, et Rintintin dans un format légèrement plus grand. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,48 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette recension n’est pas exhaustive.
-Eagle
-Riders of the Range (1951-52)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette recension n’est pas exhaustive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Eagle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Riders of the Range (1951-52)
 The Cochise Affair (1952)
 Lost Bonanza (1952-53)
 The War with Geronimo (1953)
@@ -598,27 +651,197 @@
 Down Mexico Way (1958-59)
 Jeff Arnold and Sam Bass (1959)
 West to Santa Fe (1960)
-Scourge of the Pecos (1960-61)
-Eagle Annuals
-#01 A Brush in the West 4 planches couleur (dessins de Jack Daniel)
+Scourge of the Pecos (1960-61)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Eagle Annuals</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>#01 A Brush in the West 4 planches couleur (dessins de Jack Daniel)
 #03 The Road Agent 4 planches couleur (dessins de Richard Jennings)
 #04 A Hard and Fast Case 4 planches couleur (dessins de Harry Bishop)
 #05 The Fight at Copper Canyon 4 planches couleur (dessins de Harry Bishop)
 #07 One Good Turn 4 planches noir et blanc (dessins de Richard Jennings)
 #08 The Kidnapped Comanche 4 planches noir et blanc (dessins de Richard Jennings)
 #09 Guns for Hire 4 planches noir et blanc (dessins de Desmond Walduck)
-#10 Old White 4 planches noir et blanc (dessins de Richard Jennings)
-L’Intrépide (1961-62)
-Jeff Arnold et l’héritier de Duncrieff (1961-1962 à partir du #609)
-Pilote (1961-1962)
-Le justicier de Zapata (1961 #101-114)
+#10 Old White 4 planches noir et blanc (dessins de Richard Jennings)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L’Intrépide (1961-62)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jeff Arnold et l’héritier de Duncrieff (1961-1962 à partir du #609)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pilote (1961-1962)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le justicier de Zapata (1961 #101-114)
 Terreur à Pecos (1962 - #115-141)
-Les cavaliers de la frontière (1962 - #142-171)
-Rintintin
-Sur la route du Mexique (#55)
-Les Guerriers Peaux-Rouges (#56)
-Jeff (1961-63)
-Petit format de 25 numéros 
+Les cavaliers de la frontière (1962 - #142-171)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rintintin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sur la route du Mexique (#55)
+Les Guerriers Peaux-Rouges (#56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jeff_Arnold_(bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeff_Arnold_(bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeff (1961-63)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Petit format de 25 numéros 
 Géronimo sur le sentier de la guerre (#1/2/3/4)
 Mutuel secours (#5)
 Chanter n'est pas jouer (#6)
